--- a/data/output/bases-separadas/-0.xlsx
+++ b/data/output/bases-separadas/-0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A101"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,505 +439,1210 @@
           <t>cnpj</t>
         </is>
       </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cnae</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>47193149000106</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>01533118000148</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>31546476000156</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>06911993000130</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>47509120000182</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>04816962000174</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>88256979000104</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>02873476000162</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>49698723000103</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>05307587000108</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>97755177000130</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>02709170000175</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>62307848000115</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>05620363000143</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>4836002000176</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>0314256000173</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>85486728000128</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>02113169000183</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>3871338000107</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>05886695000174</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>4096773000174</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>03497150000140</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>45296126000193</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>06031936000166</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>77637684000161</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>04545995000127</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>78408218000177</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>03451550000115</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>3351783000146</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>06181174000184</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>76610690000162</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>02491558002609</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
-        <v>2843069000102</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>04171105000164</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
-        <v>21610050000160</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>05099025000108</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
-        <v>92238096000149</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>01717178000110</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
-        <v>27476373000190</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>01190562000108</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
-        <v>19270206000160</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>05623175000179</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
-        <v>57034241000179</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>06258913000199</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
-        <v>39780861000175</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>05680391000156</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
-        <v>45993490000102</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>0762093000191</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
-        <v>76648500000104</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>04180193000160</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
-        <v>7713612000170</v>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>07682473000165</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
-        <v>62131594000127</v>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>05868383000138</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
-        <v>7958702000121</v>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>09644245000126</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
-        <v>43872274000183</v>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>05979337000106</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
-        <v>1367536000102</v>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>06144358000174</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
-        <v>7207996000150</v>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>04708315000149</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
-        <v>83102400000135</v>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>08965616000109</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
-        <v>54337514000166</v>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>02180315000193</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n">
-        <v>46020608000189</v>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>05148428000108</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
-        <v>7041337000196</v>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>04677899000132</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
-        <v>5085879000135</v>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>05610532000164</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
-        <v>84434257000141</v>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>09009131000104</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
-        <v>7404227000141</v>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>09527588000100</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
-        <v>77294254000194</v>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>07378804000178</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
-        <v>91731299000100</v>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>06696531000147</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n">
-        <v>82461310000178</v>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>09143079000184</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
-        <v>3222728000156</v>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>09115997000108</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
-        <v>43648971000155</v>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>08375256000276</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
-        <v>90657289000109</v>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>06171296000190</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
-        <v>5238995000147</v>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>08729116000178</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="n">
-        <v>1061240000169</v>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>03483351000199</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
-        <v>3470725000131</v>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>03089459000100</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
-        <v>3604166000105</v>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>07220180000166</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n">
-        <v>5246770000132</v>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>03464441000132</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n">
-        <v>76751072000132</v>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>06218189000170</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n">
-        <v>584949000186</v>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>04976895000155</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
-        <v>4351650000132</v>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>05378919000137</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="n">
-        <v>83732172000187</v>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>0886392000138</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="n">
-        <v>94683364000167</v>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>03771046000100</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="n">
-        <v>5395029000133</v>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>0760854000176</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="n">
-        <v>8177233000176</v>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>0631485000111</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="n">
-        <v>22257109000141</v>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>0977275000180</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="n">
-        <v>95422986000102</v>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>0749514000144</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="n">
-        <v>1448758000150</v>
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>07159131000165</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="n">
-        <v>76840537000121</v>
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>02819731000199</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="n">
-        <v>15138407000157</v>
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>04353749000173</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="n">
-        <v>94654811000150</v>
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>05509629000185</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="n">
-        <v>4724729000161</v>
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>04605734000155</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="n">
-        <v>80952377000180</v>
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>01964710000102</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="n">
-        <v>2400185000157</v>
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>03585448000102</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="n">
-        <v>5864744000178</v>
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>09662290000103</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="n">
-        <v>2764528000162</v>
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>07125516000101</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="n">
-        <v>54209481000179</v>
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>07884579000141</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="n">
-        <v>59105262000163</v>
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>08492764000153</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="n">
-        <v>2081276000177</v>
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>01867609000125</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="n">
-        <v>721375000140</v>
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>07090128000132</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="n">
-        <v>1998633000101</v>
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>03376307000180</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="n">
-        <v>7965066000165</v>
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>03698527000120</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="n">
-        <v>57572364000163</v>
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>07101414000318</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="n">
-        <v>68765825000130</v>
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>07568557000334</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="n">
-        <v>536772000142</v>
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>01092110000193</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="n">
-        <v>18715532000170</v>
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>02404755000187</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="n">
-        <v>3481736000117</v>
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>01627521000136</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="n">
-        <v>40217234000100</v>
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>04698556000154</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="n">
-        <v>4937012000106</v>
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>04337299000125</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="n">
-        <v>3709221000121</v>
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>02238455000175</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="n">
-        <v>2672877000154</v>
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>02491558012582</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="n">
-        <v>2093733000143</v>
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>02543945000185</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="n">
-        <v>185997000100</v>
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>04716606000189</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="n">
-        <v>5296022000164</v>
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>03049500000106</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="n">
-        <v>7085880000195</v>
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>09311702000160</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="n">
-        <v>860872000120</v>
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>06912480000143</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="n">
-        <v>3868311000165</v>
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>08581478000164</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="n">
-        <v>165352000105</v>
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>02264698000188</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="n">
-        <v>3826811000134</v>
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>05933420000144</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="n">
-        <v>5155512000140</v>
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>01410568000143</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="n">
-        <v>94001641000104</v>
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>09601070000250</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="n">
-        <v>87399630000169</v>
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>05162668000159</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="n">
-        <v>1466431000100</v>
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>03731669000141</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="n">
-        <v>7686237000117</v>
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>07431006000162</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="n">
-        <v>48713903000146</v>
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>09103399000100</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="n">
-        <v>91597617000191</v>
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>05125726000174</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="n">
-        <v>39017306000196</v>
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>09452461000170</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="n">
-        <v>2497348000161</v>
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>02753110000150</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="n">
-        <v>76295344000137</v>
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>08992020000106</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
   </sheetData>
